--- a/medicine/Enfance/Rouge_et_Or_(collection)/Rouge_et_Or_(collection).xlsx
+++ b/medicine/Enfance/Rouge_et_Or_(collection)/Rouge_et_Or_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">.
 Rouge et Or, anciennement Bibliothèque Rouge et Or, est une collection française de livres pour la jeunesse fondée en 1947 par les éditions Générale Publicité, devenue G. P. puis Société nouvelle des éditions G. P. lors du rachat par les Presses de la Cité, et enfin G. P. Rouge et Or.
@@ -512,11 +524,13 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éditions Rouge et Or constituaient le département de littérature pour la jeunesse du groupe Les Presses de la Cité fondé en 1943 par le Danois Sven Nielsen. Installé dans un hôtel particulier, près de l'église Saint-Sulpice jusqu'en 1987, le groupe détenait également les Éditions Julliard (éditeur entre autres de Françoise Sagan), Fleuve noir, ainsi que d'autres maisons d'édition et une collection de poche.
 En 1947, la collection devient « La Bibliothèque Rouge et Or ». Elle sera sous-divisée en trois catégories :
-Rouge et Or « Souveraine »[1](1956), destinée aux lecteurs plus âgés. La « Souveraine » reprendra tous les titres édités dans la « Bibliothèque Rouge et Or » avec une nouvelle numérotation.
+Rouge et Or « Souveraine »(1956), destinée aux lecteurs plus âgés. La « Souveraine » reprendra tous les titres édités dans la « Bibliothèque Rouge et Or » avec une nouvelle numérotation.
 Rouge et Or « Dauphine » (1957), destinée aux lecteurs plus jeunes.
 Rouge et Or « Télé-Souveraine » : ces livres reprenaient des feuilletons télévisés contemporains de l'ORTF.
 Elle a connu une grande diffusion jusqu'à la fin du XXe siècle et a publié quelques classiques mais surtout de nombreux auteurs contemporains français : Paul Berna, May d'Alençon, Saint-Marcoux, ainsi que des auteurs étrangers, principalement scandinaves : Lisbeth Werner, Gretha Stevns ou Martha Sandwall-Bergström.
@@ -552,13 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La Bibliothèque Rouge &amp; Or
-À ses débuts, les livres de « La Bibliothèque Rouge &amp; Or » sont sous-titrés « Bibliothèque des moins de vingt ans ». (lecteurs entre dix et seize ans)[2]. Plutôt luxueux, ils sont souvent offerts aux élèves comme prix en fin d'année scolaire. Sur la quatrième de couverture de la jaquette, le logo de la collection est ceint de l'inscription suivante : « La Bibliothèque Rouge et Or forme la goût de la jeunesse ».
+          <t>La Bibliothèque Rouge &amp; Or</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À ses débuts, les livres de « La Bibliothèque Rouge &amp; Or » sont sous-titrés « Bibliothèque des moins de vingt ans ». (lecteurs entre dix et seize ans). Plutôt luxueux, ils sont souvent offerts aux élèves comme prix en fin d'année scolaire. Sur la quatrième de couverture de la jaquette, le logo de la collection est ceint de l'inscription suivante : « La Bibliothèque Rouge et Or forme la goût de la jeunesse ».
 De format 21 cm x 15 cm, reliés et solides, les premiers volumes parus ont les plats recouverts de toile rouge qui imite le maroquin. Le premier plat est orné d'une arabesque noire, le dos comporte un lettrage doré :
 Le livre est enveloppé d'une jaquette laquée en couleur, imitant un demi-chagrin grainé rouge. Au dos de la jaquette, les titre et nom d'auteur sont insérés d'abord dans une unique case jaune, puis une case sera ajoutée, comportant un dessin en miniature.
-Les livres comptent environ deux cents pages sur papier vélin[3], avec de nombreuses illustrations intérieures de pleine page et de demi-page, en couleur et noir et blanc.
-Rouge et Or
-Dans les années cinquante, la toile rouge est abandonnée au profit d'un cartonnage de couleur crème, décoré de losanges surlignés de rose contenant des dorures :
+Les livres comptent environ deux cents pages sur papier vélin, avec de nombreuses illustrations intérieures de pleine page et de demi-page, en couleur et noir et blanc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aspect des livres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rouge et Or</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans les années cinquante, la toile rouge est abandonnée au profit d'un cartonnage de couleur crème, décoré de losanges surlignés de rose contenant des dorures :
 Une nouvelle numérotation apparaît. Elle part de zéro au moment du passage de la « Bibliothèque Rouge &amp; Or » à « Rouge et Or », et variera au fil des années. Deux titres différents peuvent donc porter le même numéro selon la date à laquelle ils ont été édités.
 La jaquette est supprimée dans les années soixante et est remplacée par un pelliculage.
 À partir des années 1960, l’aspect des livres sera plusieurs fois modernisé.
@@ -566,35 +619,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rouge_et_Or_(collection)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Titres parus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive classée par ordre chronologique de première parution)[4]
-Bibliothèque Rouge &amp; Or (1947-1957)
-(note : les catégories « Dauphine » et « Souveraine » n'existaient pas pour les premiers volumes parus)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive classée par ordre chronologique de première parution)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bibliothèque Rouge &amp; Or (1947-1957)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(note : les catégories « Dauphine » et « Souveraine » n'existaient pas pour les premiers volumes parus)
 1947 : Les Malheurs de Sophie, Comtesse de Ségur — illustrations : Guy Sabran ; no 01
 1947 : Le Colonel Chabert, Honoré de Balzac — ill. Quéméré ; no 02
 1947 : Les Bons Enfants, Comtesse de Ségur — ill. Guy Sabran ; no 03
@@ -628,7 +718,7 @@
 1949 : La Légende d'Ulenspiegel, Charles de Coster — ill. Jean Chièze ; no 31
 1949 : Les Aventures d'Arthur Gordon Pym, Edgar Poe — ill. Pierre Leconte ; no 32
 1950 : Un corsaire de quinze ans, Louis Garneray — ill. Henri Dimpre ; no 33
-1950 : Petites bonnes femmes[5], Louisa May Alcott — ill. Guy Sabran ; no 34
+1950 : Petites bonnes femmes, Louisa May Alcott — ill. Guy Sabran ; no 34
 1950 : Paul et Virginie, Bernardin de Saint-Pierre — ill. Claude Delaunay ; no 35
 1950 : Contes des mille et une nuits — ill. André Jourcin ; no 36 et no 43
 1950 : Petite princesse, Frances Burnett — ill. Marcel Bloch ; no 37
@@ -653,9 +743,9 @@
 1952 : Les Trois Mousquetaires tome 1, Alexandre Dumas — ill. Claude Delaunay ; no 57
 1952 : Les Trois Mousquetaires tome 2, Alexandre Dumas — ill. Claude Delaunay ; no 58
 1952 : David Copperfield, Charles Dickens — ill. Pierre Rousseau ; no 59
-1952 : Domino le secret de pierres-noires[6], Saint-Marcoux — ill. Pierre Rousseau ; no 60
+1952 : Domino le secret de pierres-noires, Saint-Marcoux — ill. Pierre Rousseau ; no 60
 1953 : Le Secret de Pierres-Noires, Saint-Marcoux — ill. Pierre Rousseau ; no 60
-1953 : Flibustiers et boucaniers[7], Alexandre Oexmelin — ill. Jean Chièze ; no 61
+1953 : Flibustiers et boucaniers, Alexandre Oexmelin — ill. Jean Chièze ; no 61
 1953 : L'Ancre de Miséricorde, Pierre Mac Orlan — ill. Pierre Rousseau ; no 62
 1953 : La Porte du dragon, Barbara Gilson — ill. Marcel Bloch ; no 63
 1953 : Les Sept Filles du roi Xavier, Saint-Marcoux — ill. Murièle ; no 64
@@ -683,10 +773,10 @@
 1955 : En kayak du Gabon au Mozambique, Maurice Patry — ill. Raoul Auger ; no 86
 1955 : Douce Adi, Elsie — ill. Claude Delaunay ; no 87
 1955 : Maroussia, Pierre-Jules Hetzel — ill. Pierre Le Guen ; no 88
-1955 : Le Cheval sans tête[8], Paul Berna — ill. Pierre Dehay ; no 89
+1955 : Le Cheval sans tête, Paul Berna — ill. Pierre Dehay ; no 89
 1955 : Fanchette, Jany Saint-Marcoux — ill. Gilles Valdès ; no 90
 1955 : Inoubliables vacances, Jean-Marc Sévil — ill. René Péron ; no 91
-1955 : Xavier bas-rouges[9], Renée Aurembou — ill. Pierre Dehay ; no 92
+1955 : Xavier bas-rouges, Renée Aurembou — ill. Pierre Dehay ; no 92
 1955 : L'Histoire merveilleuse d'Albert Schweitzer, Titt Fasmer Dahl — ill. Raoul Auger ; no 93
 1955 : L'Histoire de France racontée à François et Caroline, Jean Duché — ill. Claude Delaunay ; no 94
 1955 : Gulla châtelaine, Martha Sandwall-Bergström — ill. Félix Lacroix ; no 95
@@ -708,7 +798,7 @@
 1957 : Les Trois Aventureux, Lily Jean-Javal — ill. Françoise Bertier ; (pas de n°)
 1957 : Le Brick "Trois-Lys", Olle Mattson — ill. Félix Lacroix ; no 111
 1957 : Le Merveilleux Été, Elsa Nyblom — ill. G. de Sainte-Croix ; no 112
-1957 : Lorna Doune chez les outlaws[10], Richard Doddridge Blackmore — ill. Gaston Tisserand ; no 113
+1957 : Lorna Doune chez les outlaws, Richard Doddridge Blackmore — ill. Gaston Tisserand ; no 113
 1957 : Les Contes de mon oncle Frédéri, Charles de Richter — ill. Pierre Le Guen ; no 114
 1957 : Le Carrefour de la Pie, Paul Berna — ill. G. de Sainte-Croix ; no 115
 1957 : Le Ruisseau des Anges, Martha Sandwall-Bergström — ill. Gilles Valdès ; no 116
@@ -720,16 +810,52 @@
 1957 : Le Kangourou volant, Paul Berna — ill. Pierre Le Guen ; no 122
 1957 : Roseline et le nain vert, Michèle Arnéguy — ill. Pierre Le Guen ; no 123
 1957 : L'Auberge du loup blanc, Michael D. Gibson — ill. Henri Dimpre ; no 124
-Rouge et Or Souveraine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rouge et Or Souveraine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1956 : Dear chérie, Anne Beauchamps — ill. G. de Sainte-Croix ; Souveraine no 101
 1958 : Millionnaires en herbe, Paul Berna — ill. G. de Saint-Croix ; Souveraine no 125
 1958 : Le Diable doux, Saint-Marcoux — ill. Gilles Valdès ; Souveraine no 126
 1958 : Puck détective, Lisbeth Werner — ill. Pierre Le Guen ; Souveraine no 127
-1958 : L’Énigme de Kali-Bao, François d'Orgeval[11] — ill. G. de Sainte-Croix ; Souveraine no 128
+1958 : L’Énigme de Kali-Bao, François d'Orgeval — ill. G. de Sainte-Croix ; Souveraine no 128
 1958 : Gulla en vacances, Martha Sandwall-Bergström — ill. Félix Lacroix ; Souveraine no 129
-1958 : Baldy sur la piste blanche, Esther Birdsall Darling[12] ; ill. G. de Sainte-Croix ; Souveraine no 130
+1958 : Baldy sur la piste blanche, Esther Birdsall Darling ; ill. G. de Sainte-Croix ; Souveraine no 130
 1958 : La Chaumière de Cécilia, Elsie — ill. Pierre Le Guen ; Souveraine no 131
-1958 : Le Faucon du Nord-Ouest, Samuel Alexander White[13] — ill. Henri Dimpre ; Souveraine no 132
+1958 : Le Faucon du Nord-Ouest, Samuel Alexander White — ill. Henri Dimpre ; Souveraine no 132
 1958 : Les Pèlerins de Chiberta, Paul Berna — G. de Sainte-Croix ; Souveraine no 133
 1958 : Doucette au cœur d'or, Renée Aurembou — ill. Jean Sidobre ; Souveraine no 134
 1958 : Le Pays perdu, Cécile d'Argel — ill. G. de Sainte-Croix ; Souveraine no 135
@@ -741,7 +867,7 @@
 1959 : L’Îlot des périls, Daniel-Girard — ill. Daniel Dupuy ; Souveraine no 141
 1959 : Puck continue, Lisbeth Werner — ill. Pierre Le Guen ; Souveraine no 142
 1959 : L'Escalier bleu, Renée Aurembou — ill. Jean Sidobre ; Souveraine no 143
-1959 : Le Champion[14], Paul Berna — ill. Pierre Le Guen ; Souveraine no 144
+1959 : Le Champion, Paul Berna — ill. Pierre Le Guen ; Souveraine no 144
 1959 : La Caravelle, Jany Saint-Marcoux — ill. Daniel Dupuy ; Souveraine no 145
 1959 : Les Mahuzier en Afrique, Philippe Mahuzier ; ill. Raoul Auger ; Souveraine no 146
 1959 : Les Compagnons du Cerf d'argent, Jacqueline Dumesnil — ill. Henri Dimpre ; Souveraine no 147
@@ -756,17 +882,17 @@
 1960 : Églantine et l'aventure, Renée Aurembou — ill. Vanni Tealdi ; Souveraine no 156
 1960 : La Longue Route de Chico, Estrid Ott — ill. Françoise Bertier ; Souveraine no 157
 1960 : Espoir en 33 Tours, Jany Saint-Marcoux — ill. Daniel Dupuy ; Souveraine no 158
-1960 : Le Prisonnier de la rivière noire[15], Thérèse Govy — ill. Jacques Pecnard ; Souveraine no 159
+1960 : Le Prisonnier de la rivière noire, Thérèse Govy — ill. Jacques Pecnard ; Souveraine no 159
 1960 : Christophe chef d'orchestre, Yvonne Meynier — ill. Jean Reschofsky ; Souveraine no 160
 1961 : Le Secret de l'or, Madeleine Raillon — ill. Jacques Pecnard ; Souveraine no 161
 1961 : Une affaire atomique, André Massepain — ill. Raoul Auger ; Souveraine no 162
-1961 : Jeune Pépita[16], Martha Sandwall-Bergström — ill. Gilles Valdès ; Souveraine no 163
+1961 : Jeune Pépita, Martha Sandwall-Bergström — ill. Gilles Valdès ; Souveraine no 163
 1961 : Cet été-là, Jany Saint-Marcoux — ill. Daniel Dupuy ; Souveraine no 164
 1961 : Fraise des bois, Michèle Arnéguy — ill. Jean Reschofsky ; Souveraine no 165
 1961 : Puck dans la neige, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 166
 1961 : Le Bout du monde, Paul Berna — ill. Jean Reschofsky ; Souveraine no 167
 1961 : Chico poursuit sa route, Estrid Ott — ill. Françoise Bertier ; Souveraine no 168
-1961 : Toukaram ou l'Age de l'amitié[17], Jean-François Pays — ill. Michel Gourlier ; Souveraine no 169
+1961 : Toukaram ou l'Age de l'amitié, Jean-François Pays — ill. Michel Gourlier ; Souveraine no 169
 1961 : Le combat du cerf d'argent, Jacqueline Dumesnil — ill. Henri Dimpre ; Souveraine no 170
 1961 : Indomptable Katy, Anne Clairac — ill. Françoise Bertier ; Souveraine no 171
 1961 : Une petite fille attendait, Yvonne Meynier — ill. Pierre Le Guen ; Souveraine no 172
@@ -786,7 +912,7 @@
 1963 : Eva, mon frère et moi, Augusta Séguy — ill. Bertrand ; Souveraine no 186
 1963 : Le Fils de l'Empereur, André Castelot — ill. Raoul Auger ; Souveraine no 187
 1962 : L’Émeraude de la Reine de Pologne, Anne Clairac — Ill. Françoise Bertier ; Souveraine no 188
-1963 : La Dernière Charge[18], Jean-François Pays — ill. Michel Gourlier ; Souveraine no 189
+1963 : La Dernière Charge, Jean-François Pays — ill. Michel Gourlier ; Souveraine no 189
 1963 : L’Ânesse de Chico, Estrid Ott — ill. Françoise Bertier ; Souveraine no 190
 1963 : Le Témoignage du chat noir, Paul Berna — ill. Daniel Dupuy ; Souveraine no 191
 1963 : Télégramme de Lilliput, Henry Winterfeld — ill. Bertrand ; Souveraine no 192
@@ -799,7 +925,7 @@
 1964 : L'Ascenseur volant, Annie M. G. Schmidt — ill. Michel Jouin ; Souveraine no 199
 1964 : Village S.O.S., Marie Maraire — ill. Bertrand ; Souveraine no 200
 1964 : Le Triomphe de Belle-Étoile, Blanche Chenery Perrin — ill. Pierre Le Guen ; Souveraine no 201
-1964 : Marcus Imperator[19], Jean-François Pays — ill. Michel Gourlier ; Souveraine no 202
+1964 : Marcus Imperator, Jean-François Pays — ill. Michel Gourlier ; Souveraine no 202
 1964 : Goli ou le chant du soir , Eve Dessare — ill. Raoul Auger ; Souveraine no 203
 1964 : Puck contre les voleurs, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 204
 1964 : Les Mahuzier au Canada, Philippe et Jacqueline Mahuzier — ill. Raoul Auger ; Souveraine no 205
@@ -811,7 +937,7 @@
 1964 : Le Prince impérial : cet autre Aiglon, Alain Decaux — ill. Raoul Auger ; Souveraine no 211
 1964 : Puck a des ennuis, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 212
 1965 : Les Cent Malheurs des petits Cantebec, Andrée Dubois-Millot — ill. Daniel Dupuy ; Souveraine no 213
-1965 : L'Incroyable Randonnée, Sheila Burnford (en)[20] — ill. Michel Gourlier ; Souveraine no 214
+1965 : L'Incroyable Randonnée, Sheila Burnford (en) — ill. Michel Gourlier ; Souveraine no 214
 1965 : La Maison des Quatre-Vents, Colette Vivier — ill. Jacques Pecnard ; Souveraine no 215
 1965 : Le Manoir solitaire, Harriet Evatt — ill. Félix Lacroix ; Souveraine no 216
 1965 : L'Aigle dans la forêt, Colette Meffre — ill. Jacques Pecnard ; Souveraine no 217
@@ -821,7 +947,7 @@
 1965 : Pour sauver le prince..., Cécile d'Argel — ill. Gilles Valdès ; Souveraine no 221
 1965 : Un ban pour Puck, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 222
 1965 : Le frère que j'attendais, M. Peyrouton de Ladebat — ill. Monique Gorde ; Souveraine no 223
-1965 : Sylvia et Bonnie au pays des loups[21], Joan Aiken — ill. Michel Gourlier ; Souveraine no 224
+1965 : Sylvia et Bonnie au pays des loups, Joan Aiken — ill. Michel Gourlier ; Souveraine no 224
 1966 : Francesco, Jacqueline Cervon — ill. Vanni Tealdi ; Souveraine no 225
 1966 : Le Naufragé mystérieux, Arthur Catherall — ill. Maurice Parent ; Souveraine no 226
 1966 : Menou jeune fille, Myonne — ill. Daniel Dupuy ; Souveraine no 227
@@ -843,7 +969,7 @@
 1967 : Nikios, révolte à Babylone, Régine M. Reboul — ill. Bertrand ; Souveraine no 243
 1967 : Mes victoires, mes défaites, ma vie, Michel Jazy — ill. Photos presse ; Souveraine no 244
 1967 : Ma tendre panthère, Saint-Marcoux — ill. Maurice Paulin ; Souveraine no 245
-1967 : Menou et François[22], Myonne — ill. Daniel Dupuy ; Souveraine no 246
+1967 : Menou et François, Myonne — ill. Daniel Dupuy ; Souveraine no 246
 1967 : Le Ski et ses champions, Roger Debaye — ill. (inconnu) ; Souveraine no 247
 1967 : Le Commissaire Sinet et le mystère de l'autoroute du sud, Paul Berna — ill. Daniel Dupuy ; Souveraine no 248
 1967 : Le Réseau secret du vieux moulin, Armand Dumazot — ill. Vanni Tealdi ; Souveraine no 249
@@ -859,7 +985,7 @@
 1968 : La Bataille du vieux village, Colette Meffre — ill. Vanni Tealdi ; Souveraine no 272
 1969 : Christine chez les Grangier, Hélène Ray — ill. Monique Gorde ; Souveraine no 274
 1969 : Puck et l'affaire des 60 couronnes, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 275
-1969 : L'Épave de la Bérénice, Paul Berna — ill. Bertrand ; Souveraine no 270[23]
+1969 : L'Épave de la Bérénice, Paul Berna — ill. Bertrand ; Souveraine no 270
 1969 : La Dot de Marilys, Myonne — ill. Daniel Dupuy ; Souveraine no 278
 1969 : Du riz pour Sissoko, Yolande Vidal — ill. Bertrand ; Souveraine no 279
 1969 : Silvio ou l'Été florentin, Jean-Côme Noguès — ill. Pierre Le Guen ; Souveraine no 281
@@ -894,13 +1020,49 @@
 1976 : A Peyreloube, un été, Hélène Coudrier — ill. Jean Retailleau ; Souveraine no 340
 1976 : Colline poussiéreuse, Ève Dessarre — ill. Vanni Tealdi ; Souveraine no 344
 1977 : Puck et le mystère du billet de loterie, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 349
-1978 : Puck et l'inconnu à la veste de cuir, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 363[24]
-Rouge et Or Dauphine
+1978 : Puck et l'inconnu à la veste de cuir, Lisbeth Werner — ill. Vanni Tealdi ; Souveraine no 363
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rouge et Or Dauphine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1957 : Les Vacances d'Isabelle, Véronique Day — ill. Luce Lagarde ; Dauphine no 02
 1957 : Quatre filles sur un mur, Renée Manière — ill. G. de Sainte-Croix ; Dauphine no 03
 1957 : Le Chemin des étoiles, Dominique François — ill. Gilles Valdès ; Dauphine no 04
 1957 : La Reine des neiges, Hans Christian Andersen — ill. Lars Bo ; Dauphine no 05
-1957 : Bob, chasseur d'éléphants[25], Dock Hogue — ill. Raoul Auger ; Dauphine no 06
+1957 : Bob, chasseur d'éléphants, Dock Hogue — ill. Raoul Auger ; Dauphine no 06
 1957 : L'Oiseau d'Afrique, Jacqueline Puissant — ill. Guy Sabran ; Dauphine no 07
 1957 : Par 20 mètres de fond, Arthur Catherall — ill. Henri Dimpre ; Dauphine no 08
 1957 : Le Mercure d'or, Jean Ollivier — ill. Pierre Le Guen ; Dauphine no 09
@@ -931,7 +1093,7 @@
 1959 : Cendrillon n'ira pas au bal, Lisa Tetzner' — ill. Luce Lagarde ; Dauphine no 135
 1959 : L’Ile fantôme, Hugues Varnac — ill. G. de Sainte-Croix ; Dauphine no 36
 1959 : Jim Clark au Grand Nord, G. Sellier-Leclercq — ill. Gilles Béquet ; Dauphine no 137
-1959 : Les Mascottes du Tahiti-Nui[26], Jaime Bustos Mandiola — ill. Pierre Le Guen ; Dauphine no 38
+1959 : Les Mascottes du Tahiti-Nui, Jaime Bustos Mandiola — ill. Pierre Le Guen ; Dauphine no 38
 1959 : La Fille du potier, Marguerite Thiébold — ill. G. de Sainte-Croix ; Dauphine no 40
 1960 : Sans famille, Hector Malot — ill. Françoise Bertier ; Dauphine no 41-42
 1960 : Corentin et l'île aux oiseaux, Yvonne Meynier — ill. Pierre Le Guen ; Dauphine no 43
@@ -955,23 +1117,23 @@
 1961 : Yance, chasseur intrépide, William Steele — ill. Henri Dimpre ; Dauphine no 66
 1961 : Bibi-coucou, le joyeux chemineau, May d'Alençon — ill. Luce Lagarde ; Dauphine no 67
 1961 : Nouvelles aventures de Susy, Gretha Stevns — ill. Françoise Bertier ; Dauphine no 68
-1962 : La Famille Cherry de la Maison sur la Rivière[27], Will Scott — ill. Pierre Le Guen ; Dauphine no 69
+1962 : La Famille Cherry de la Maison sur la Rivière, Will Scott — ill. Pierre Le Guen ; Dauphine no 69
 1962 : Marquise en sabots, Jacqueline Dumesnil — ill. Manon Iessel ; Dauphine no 56
 1962 : Nicki, le petit phoque, Edith Grotkop — ill. Monique Berthoumeyrou ; Dauphine no 71
 1962 : Le Chalet des joues roses, Renée Aurembou — ill. Mixi-Bérel ; Dauphine no 72
 1962 : Les Trois Mousses, Jacques Christophe — ill. Françoise Bertier ; Dauphine no 73
 1962 : Isabelle et la maison qui roule, Véronique Day — ill. Pierre Le Guen ; Dauphine no 74
-1962 : Les Cherry et compagnie[28], Will Scott — ill. Pierre Le Guen ; Dauphine no 75
+1962 : Les Cherry et compagnie, Will Scott — ill. Pierre Le Guen ; Dauphine no 75
 1962 : Bibi-Coucou reprend la route, May d'Alençon — ill. Luce Lagarde ; Dauphine no 76
 1963 : Futino venu du ciel, Patrice Guillois — ill. Françoise Dudal ; Dauphine no 77
 1963 : La Princesse aveugle, Dominique François — ill. M. Berthoumeyrou ; Dauphine no 78
 1963 : Susy fait des siennes, Gretha Stevns — ill. Françoise Bertier ; Dauphine no 79
 1963 : Nic et Pat jouent au détective, Edward Home-Gall — ill. M. Berthoumeyrou ; Dauphine no 80
-1963 : Les Cherry au bord de la mer[29], Will Scott — ill. Pierre Le Guen ; Dauphine no 83
+1963 : Les Cherry au bord de la mer, Will Scott — ill. Pierre Le Guen ; Dauphine no 83
 1963 : Tu seras heureuse Rita, J. Christiaens — ill. Pierre Le Guen ; Dauphine no 185
 1963 : La Cabane dans les sapins, Renée Aurembou — ill. Bertrand ; Dauphine no 86
-1963 : Les Cherry et la double flèche[30], Will Scott — ill. Pierre Le Guen ; Dauphine no 187
-1963 : Ouragan, l'étalon sauvage[31], Joseph E. Chipperfield — ill. Henri Dimpre ; Dauphine no 18
+1963 : Les Cherry et la double flèche, Will Scott — ill. Pierre Le Guen ; Dauphine no 187
+1963 : Ouragan, l'étalon sauvage, Joseph E. Chipperfield — ill. Henri Dimpre ; Dauphine no 18
 1964 : Trois gamins malicieux, Henri de Venel — ill. Pierre Le Guen ; Dauphine no 89
 1964 : Les Vacances de Line et Lou, Colette Meffre — ill. Luce Lagarde ; Dauphine no 90
 1964 : Juanito devient un homme, Jacques Christophe — ill. M. Berthoumeyrou ; Dauphine no 91
@@ -984,35 +1146,185 @@
 1964 : Line et Lou sur les mers, Colette Meffre — ill. Luce Lagarde ; Dauphine no 103
 1964 : Les Quatre de la rue sans issue, Marie Maraire — ill. Anne Bozellec ; Dauphine no 104
 1965 : Les Deux Nigauds, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 105
-1965 : François le bossu, Comtesse de Ségur</t>
+1965 : François le bossu, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 106
+1965 : Les Voisins de la villa Cabri, Marie-Dominique Poinsenet — ill. Pierre Le Guen ; Dauphine no 107
+1965 : La Sœur de Gribouille, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 109
+1965 : Susy en pension, Gretha Stevns — ill. Françoise Berthier ; Dauphine no 110
+1965 : Petit-Jo et la vitrine de Noël, Renée Aurembou — ill. Bertrand ; Dauphine no 111
+1965 : Rosie et les trois mousses, Jacques Christophe — ill. Françoise Bertier ; Dauphine no 112
+1965 : Le Mauvais Génie, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 113
+1966 : Sambo le petit Camerounais, J. Christiaens — ill. Michel Gourlier ; Dauphine no 116
+1966 : Line et Lou au fil des jours, Colette Meffre — ill. Luce Lagarde ; Dauphine no 117
+1966 : Les Quatre et le mystère du vieux Pérou, Marie Maraire — ill. Anne Bozellec ; Dauphine no 118
+1966 : Pampelune, chien trouvé, Cécile d'Argel — ill. Pierre Le Guen ; Dauphine no 119
+1966 : Susy sur la glace, Gretha Stevns — ill. Françoise Berthier ; Dauphine no 120
+1966 : L'École de la forêt vierge, Letta Schatz — ill. Anne Bozellec ; Dauphine no 121
+1966 : Monsieur La Pervenche et le Gentil Cahin-Caha, Joan Drake — ill. Luce Lagarde ; Dauphine no 122
+1966 : M'toto le bébé éléphant, Alyce Shinn Fechter — ill. Vanni Tealdi ; Dauphine no 123
+1966 : Contes choisis, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 125
+1966 : Sélim, le petit marchand de bonheur, Jacqueline Cervon — ill. Bertrand ; Dauphine no 126
+1966 : Jean qui grogne et Jean qui rit, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 127
+1966 : L'Oncle Fritz revient d'Amérique, Annemarie Norden — ill. Jacques Pecnard ; Dauphine no 128
+1967 : Jim et Bouriffon, Edward Home-Gall — ill. Vanni Tealdi ; Dauphine no 129
+1967 : Susy fait du camping, Gretha Stevns — ill. Françoise Bertier ; Dauphine no 130
+1967 : Le Petit Pêcheur de Venise, Jacques Christophe — ill. Michèle Lebas ; Dauphine no 131
+1967 : Jim et Bouriffon, Edward Home-Gall — ill. Vanni Tealdi ; Dauphine no 229
+1967 : Les Quatre et le chemin interdit]', Marie Maraire — ill. Monique Gorde ; Dauphine no 132
+1967 : La Dernière Bagarre, Dominique François — ill. Jean Sidobre ; Dauphine no 133
+1967 : Isabelle et Piou-Piou, Véronique Day — ill. Luce Lagarde ; Dauphine no 135
+1967 : Le Bonheur de Rita, J. Christiaens — ill. Pierre Le Guen ; Dauphine no 136
+1967 : Quel amour d'enfant !, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 138
+1967 : La Mystérieuse Petite Sœur, Harriet Evatt — ill. Monique Gorde ; Dauphine no 139
+1968 : Le Mauvais Génie, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 113
+1968 : C'est notre secret, Vasco, Sonia — ill. Pierre Le Guen ; Dauphine no 140
+1968 : Après la pluie, le beau temps, Comtesse de Ségur — ill. Luce Lagarde ; Dauphine no 115
+1968 : Blondy du pays vert, Johnny — ill. Vanni Tealdi ; Dauphine no 142
+1968 : Deux enfants en détresse, Annemarie Norden — ill. Bertrand ; Dauphine no 143
+1968 : You, petit poisson, Maurice Limat — ill. Vanni Tealdi ; Dauphine no 144
+1968 : La Fête des lumières, Renée Vally-Samat — ill. Bertrand ; Dauphine no 145
+1968 : La Demoiselle du roy, Alice Piguet — ill. Jean Reschofsky ; Dauphine no 146
+1968 : Belle et Toni de nulle part, Anne Pierjean — Dauphine no 148
+1968 : Trois petits ours pleins d'amour, Margaret J. Baker ; ill. Michèle Le Bas ; Dauphine no 149
+1969 : Sambo, Rita et Kakao, J. Christiaens — ill. Michel Gourlier ; Dauphine no 156
+1969 : Le Mystère du poney perdu, Alan Stone — ill. Monique Gorde ; Dauphine no 157
+1969 : Benoît, l'arbre et la lune, Jacqueline Cervon — ill. Béatrice Dorge ; Dauphine no 158
+1969 : Le Petit Grégoire et l'Icône russe, Rumer Godden — ill. Michèle Le Bas ; Dauphine no 159
+1969 : Petit-Jo et le jardin des plantes, Renée Aurembou — ill. Bertrand ; Dauphine no 160
+1969 : Malouguette et la chatte rouge, Anne Pierjean — ill. Pierre Le Guen ; Dauphine no 162
+1969 : Les Cinq du chalet d'en haut, Viola Wahlstedt-Guillemaut — ill. Vanni Tealdi ; Dauphine no 163
+1969 : Les Bonheurs de Sophie, Jeannine Tisserand — ill. Monique Gorde ; Dauphine no 164
+1969 : La Mystérieuse Lumière bleue, Harriet Evatt — ill. Monique Gorde ; Dauphine no 165
+1970 : Line et Lou à Hong-Kong, Colette Meffre — ill. Luce Lagarde ; Dauphine no 166
+1970 : Personne ne croyait Aslak, Viola Wahlstedt-Guillemaut — ill. Monique Gorde, Dauphine no 167
+1970 : L'Hirondelle m'a dit, Luce Fillol — ill. Michèle Le Bas ; Dauphine no 168
+1970 : Bimbo le petit lion, Janine Chardonnet — ill. Michel Rainaud ; Dauphine no 172
+1970 : Steve et le chien sorcier, Anne Pierjean — ill. (inconnu), Dauphine no 174
+1970 : L'Anniversaire de Caroline, James Krüss — ill. (inconnu), Dauphine no 175
+1970 : Sylvain et le renard, John Montgomery — ill. Monique Gorde, Dauphine no 177
+1970 : Les Chevaliers du Stromboli, Jacqueline Cervon — ill. Vanni Tealdi ; Dauphine no 178
+1971 : Vitalinus et les figues, Hélène Coudrier — ill. René Péron ; Dauphine no 179
+1971 : La Petite fille au kimono rouge, Kay Haugaard — ill. Monique Gorde ; Dauphine no 180
+1971 : Patte de tigre sur le sentier de la guerre, Edith Unnerstad — ill. Michèle Le Bas ; Dauphine no 182
+1971 : David et Sylvie au drôle de pays, Anne Pierjean — ill. Pierre Le Guen ; Dauphine no 183
+1971 : Le Petit manège de tonton Léonard, Yvon Mauffret — ill. Philippe Verrièle ; Dauphine no 187
+1971 : Miss Pickerell va dans la planète Mars', Ellen MacGregor — ill. Claude Verrier ; Dauphine no 188
+1971 : Lisbeth et le petit farceur, Jaap Ter Haar — ill. Michel Rainaud ; Dauphine no 190
+1971 : Allô ! Allô ! Nicolas !, Janine Chardonnet — ill. Michèle Le Bas ; Dauphine no 191
+1971 : Le Mystère de la vieille Guimbarde, Alan Stone — ill. Monique Gorde ; Dauphine no 192
+1971 : Amadou le bouquillon, Charles Vildrac — ill. Liliane Blondel ; Dauphine no 193
+1971 : Toufou et Pouquette, Gabrielle Thévenin — ill. Annie Le Polotec ; Dauphine no 194
+1972 : Line et Lou chez le sire de Roquelune, Colette Meffre — ill. Monique Gorde ; Dauphine no 195
+1972 : Djinn la Malice, Jacqueline Cervon — ill. Jean Retailleau ; Dauphine no 197
+1972 : Vitalis et les faux sesterces, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 199
+1972 : Amik et son petit loup, Dirk Van Loon — ill. Anny Le Polotec ; Dauphine no 200
+1972 : Tim et le palais merveilleux, Ève Dessarre — ill. Bertrand ; Dauphine no 201
+1972 : David et Sylvie et le drôle d'Espion, Anne Pierjean — ill. Monique Gorde ; Dauphine no 203
+1972 : Lisbeth et Panache, le petit écureuil, Jaap Ter Harr — ill. Anny Le Polotec ; Dauphine no 204
+1972 : Nouni et son arche, Gabrielle Thévenin — ill. Anny Le Polotec ; Dauphine no 208
+1973 : Un merveilleux grand-père, Jaroslava Blazkova — ill. Marie Chartrain ; Dauphine no 209
+1973 : Johannet et le Courage de Fontfraiche, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 211
+1973 : Bouli et le barbu, Yvon Mauffret — ill. Boiry ; Dauphine no 215
+1973 : Le Mystère du moulin à vent, Harriet Evatt — ill. Monique Gorde ; Dauphine no 216
+1973 : L'Affaire des sifflets à roulette, Hertha von Gebhardt — ill. Marie Chartrain ; Dauphine no 217
+1973 : David et l'ennemi de Sylvie, Anne Pierjean — ill. Monique Gorde ; Dauphine no 218
+1974 : La Boutique aux histoires, Jacqueline Verly — ill. de l'auteur ; Dauphine no 221
+1974 : Miss Pickerell fait de la plongée sous-marine, Ellen MacGregor — ill. Claude Verrier ; Dauphine no 222
+1974 : Cady et son âne, Janine Chardonnet — ill. Monique Gorde ; Dauphine no 223
+1974 : Jehannot et la petite Sarrasine, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 224
+1974 : Coumba du pays oublié des pluies, Jacqueline Cervon — ill. Jean Retailleau ; Dauphine no 226
+1974 : Lisbeth au jardin des rêves, Jaap Ter Haar — ill. Anny Le Polotec ; Dauphine no 228
+1974 : Un petit homme nommé Pierrot, Pierre Cobonne — ill. Jacques Pecnard ; Dauphine no 230
+1974 : Le Secret de la Baie Solitaire, Harriet Evatt — ill. Monique Gorde ; Dauphine no 231
+1974 : Les Trois cheveux d'or, Gabrielle Thévenin— ill. Suzette Marcoux ; Dauphine no 233
+1975 : Attention ! Clémentine, L. Pujol-Mauriès — ill. Monique Gorde ; Dauphine no 237
+1975 : Miss Pickerell remplace le shérif, Ellen MacGrégor — ill. Claude Verrier ; Dauphine no 238
+1975 : Johantet et le seigneur des aigles, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 239
+1976 : Et l'aventure Nathalie..., Yvonne Meynier — ill. Jacques Pecnard ; Dauphine no 247
+1976 : Miss Pickerell remplace le shérif, Ellen MacGrégor — ill. Claude Verrier ; Dauphine no 253
+1976 : Benoît le diplodocus, Henriette Bichonnier —ill.Brigitte Paris ; Dauphine no 4 407
+1976 : Jehan des cloches, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 257
+1977 : Jeantou le gâte-sauce, Hélène Coudrier — ill. Jacques Pecnard ; Dauphine no 265
+1977 : Le Jardin d'Antoine,  Henriette Bichonnier — ill Pef ; Dauphine no 4 363
+</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Rouge_et_Or_(collection)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rouge et Or : Télé-Souveraine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans les coulisses du rugby, Roger Couderc, adaptation Henri Garcia (1967)
+Le Chevalier Tempête, André-Paul Antoine et Pierre-Aristide Bréal (1967), adapté de la série télévisée du même nom par  Pierre Lamblin ;
+Les Compagnons de Jéhu, Alexandre Dumas (1966), adapté de la série télévisée du même nom ;
+Les Corsaires,  Claude Barma, Jacques Armand et Pierre Gaspard-Huit (1966), adapté de la série télévisée Corsaires et Flibustiers par Pierre Lamblin ;
+Les Globe-trotters, René Havard, Jacqueline Cartier, Claude Boissol, Pierre Pelegri et Jacques Rémy (1966), adapté de la série télévisée du même nom par Pierre Lamblin ;
+Les Globe-trotters, Objectif Mexico, Claude Boissol, Michel Lévine et Jean-Patrick Manchette (1968), adapté de la série télévisée du même nom par Michel Lévine et Jean-Patrick Manchette ;
+Les Globe-trotters, Des Andes à l'Amazonie, Claude Boissol, Michel Lévine, Jacques Rémy et Jean-Patrick Manchette (1968), adapté de la série télévisée du même nom par Michel Lévine et Jean-Patrick Manchette ;
+Gorri le diable, Jacques Celhay, Rodolphe-Maurice Arlaud et Jean Faurez (1968), adapté de la série télévisée du même nom par Pierre Lamblin ;
+Les Habits noirs,  Paul Féval (1967), adapté de la série télévisée du même nom par Pierre Lamblin ;
+Lagardère, Marcel Jullian d'après Paul Féval père et fils (1967), adapté de la série télévisée du même nom par Pierre Castex ;
+Un taxi dans les nuages, Gérard Sire et Paulette Despostes (1969), adapté de la série télévisée du même nom  ;
+L'île au trésor, Robert Louis Stevenson (1967), adapté de la série télévisée du même nom par Pierre Lamblin .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouge_et_Or_(collection)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Séries parues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Cherry de Will Scott (4 tomes)
@@ -1023,7 +1335,7 @@
 Menou de Myonne (3 tomes) :
 Menou jeune fille (1966) ;
 Menou mariée (1966) ;
-Menou et François (1967). Ce troisième et dernier titre a valu à son auteur d'obtenir le Prix Montyon de l'Académie française en 1949[38].
+Menou et François (1967). Ce troisième et dernier titre a valu à son auteur d'obtenir le Prix Montyon de l'Académie française en 1949.
 Miss Pickerell d'Ellen MacGregor (4 tomes) :
 Miss Pickerell va dans la planète Mars (1971) ;
 Miss Pickerell fait de la plongée sous-marine (1974) ;
